--- a/data/Subset 1/Video Mosaic Grade 4 Alans Infinity.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 4 Alans Infinity.xlsx
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
